--- a/HP/zj/202102.xlsx
+++ b/HP/zj/202102.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>2021年02月份旅差费</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>HP台式机更换电源</t>
+  </si>
+  <si>
+    <t>WO-013118043</t>
+  </si>
+  <si>
+    <t>公司-高州石鼓镇天津塘小学-公司</t>
+  </si>
+  <si>
+    <t>陆一一先生</t>
+  </si>
+  <si>
+    <t>34*2</t>
+  </si>
+  <si>
+    <t>主板DOA（HP台式机）</t>
   </si>
   <si>
     <t>、</t>
@@ -703,7 +718,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1144,13 +1159,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1493,8 +1553,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1515,8 +1581,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1533,7 +1599,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1568,7 +1634,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="12">
-        <v>44252</v>
+        <v>44252.0</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>10</v>
@@ -1583,21 +1649,37 @@
         <v>13</v>
       </c>
       <c r="H6" s="11">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44253</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="11">
+        <v>68</v>
+      </c>
+      <c r="I7" s="119" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
@@ -1771,7 +1853,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -1783,11 +1865,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202102.xlsx
+++ b/HP/zj/202102.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>2021年02月份旅差费</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>主板DOA（HP台式机）</t>
+  </si>
+  <si>
+    <t>WO-013173162</t>
+  </si>
+  <si>
+    <t>公司-高州市中山路恒博电脑城海龙电脑-公司</t>
+  </si>
+  <si>
+    <t>张先生</t>
+  </si>
+  <si>
+    <t>36*2</t>
+  </si>
+  <si>
+    <t>HP台式机不通电派了主板，把机取回公司追加电源</t>
   </si>
   <si>
     <t>、</t>
@@ -718,7 +733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1189,28 +1204,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1554,13 +1554,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1581,8 +1578,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1660,36 +1657,52 @@
         <v>15</v>
       </c>
       <c r="C7" s="15">
-        <v>44253</v>
-      </c>
-      <c r="D7" s="118" t="s">
+        <v>44253.0</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="11">
-        <v>68</v>
-      </c>
-      <c r="I7" s="119" t="s">
+        <v>68.0</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+    <row r="8" spans="1:9" ht="35.249462" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15">
+        <v>44256</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="11">
+        <v>72</v>
+      </c>
+      <c r="I8" s="119" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="11"/>
@@ -1853,7 +1866,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -1865,11 +1878,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202102.xlsx
+++ b/HP/zj/202102.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>2021年02月份旅差费</t>
   </si>
@@ -87,6 +87,230 @@
   </si>
   <si>
     <t>HP台式机不通电派了主板，把机取回公司追加电源</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-013300956
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0000448+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司-1、电白人民检察院-2、电白大道黄金海岸-公司</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、黄先生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、郭成林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>23+6+25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印机换主板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、清华同方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mini</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主机更换电源适配器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>无单</t>
+  </si>
+  <si>
+    <t>公司-广东石油化工学院西城校区-公司</t>
+  </si>
+  <si>
+    <t>黄老师</t>
+  </si>
+  <si>
+    <t>18*2</t>
+  </si>
+  <si>
+    <t>送两台修好的清华同方主机和两台显示器回</t>
+  </si>
+  <si>
+    <t>WO-013317150</t>
+  </si>
+  <si>
+    <t>公司-石鼓中学-公司</t>
+  </si>
+  <si>
+    <t>陈天</t>
+  </si>
+  <si>
+    <t>HP台式机换主板（DOA,蓝屏，不能激活系统)</t>
   </si>
   <si>
     <t>、</t>
@@ -733,7 +957,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1204,13 +1428,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1554,10 +1793,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1578,8 +1823,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1683,7 +1928,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="15">
-        <v>44256</v>
+        <v>44256.0</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>21</v>
@@ -1691,48 +1936,96 @@
       <c r="E8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="118" t="s">
+      <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="11">
+        <v>72.0</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="12">
+        <v>44267</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="11">
+        <v>54</v>
+      </c>
+      <c r="I9" s="119" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12">
+        <v>44270</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="11">
+        <v>36</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="16">
+        <v>44271</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="11">
         <v>72</v>
       </c>
-      <c r="I8" s="119" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
+      <c r="I11" s="119" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="17"/>
@@ -1866,7 +2159,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -1878,11 +2171,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>168</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202102.xlsx
+++ b/HP/zj/202102.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>2021年02月份旅差费</t>
   </si>
@@ -310,7 +310,106 @@
     <t>陈天</t>
   </si>
   <si>
-    <t>HP台式机换主板（DOA,蓝屏，不能激活系统)</t>
+    <t>HP台式机换主板（DOA,蓝屏)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、高州中学高中部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、高州第四中学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、石鼓中学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>32+6+18+35</t>
+  </si>
+  <si>
+    <t>1、送主机回;2、送主机回;3、HP台式机换主板,送主机回。</t>
   </si>
   <si>
     <t>、</t>
@@ -957,7 +1056,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1413,43 +1512,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1649,6 +1718,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
@@ -1793,16 +1865,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1823,8 +1886,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1950,28 +2013,28 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="12">
-        <v>44267</v>
-      </c>
-      <c r="D9" s="118" t="s">
+        <v>44267.0</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="70" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="118" t="s">
+      <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="11">
-        <v>54</v>
-      </c>
-      <c r="I9" s="119" t="s">
+        <v>54.0</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1980,7 +2043,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="12">
-        <v>44270</v>
+        <v>44270.0</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>31</v>
@@ -1988,14 +2051,14 @@
       <c r="E10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="11">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>34</v>
@@ -2006,7 +2069,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="16">
-        <v>44271</v>
+        <v>44271.0</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>36</v>
@@ -2017,25 +2080,41 @@
       <c r="F11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="118" t="s">
+      <c r="G11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="11">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="I11" s="119" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="14"/>
+    <row r="12" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="16">
+        <v>44273</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="11">
+        <v>91</v>
+      </c>
+      <c r="I12" s="119" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
@@ -2159,7 +2238,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2171,11 +2250,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>330</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202102.xlsx
+++ b/HP/zj/202102.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>2021年02月份旅差费</t>
   </si>
@@ -410,6 +410,201 @@
   </si>
   <si>
     <t>1、送主机回;2、送主机回;3、HP台式机换主板,送主机回。</t>
+  </si>
+  <si>
+    <t>2021年3月22</t>
+  </si>
+  <si>
+    <t>公司-1、油校西城区-2、农林学院-公司</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、黄老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、叶老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吴老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>19+6+17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、送一台主机到油校西区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、找叶老师取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台主机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>找吴老师取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台主机及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台显示器。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>、</t>
@@ -1056,7 +1251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1512,13 +1707,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1864,7 +2089,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="183" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1887,7 +2118,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2086,7 +2317,7 @@
       <c r="H11" s="11">
         <v>72.0</v>
       </c>
-      <c r="I11" s="119" t="s">
+      <c r="I11" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2095,7 +2326,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="16">
-        <v>44273</v>
+        <v>44273.0</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>39</v>
@@ -2110,21 +2341,37 @@
         <v>13</v>
       </c>
       <c r="H12" s="11">
-        <v>91</v>
-      </c>
-      <c r="I12" s="119" t="s">
+        <v>91.0</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+    <row r="13" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="11">
+        <v>42</v>
+      </c>
+      <c r="I13" s="121" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="69"/>
@@ -2238,7 +2485,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2250,11 +2497,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>421</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202102.xlsx
+++ b/HP/zj/202102.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>2021年02月份旅差费</t>
   </si>
@@ -412,6 +412,18 @@
     <t>1、送主机回;2、送主机回;3、HP台式机换主板,送主机回。</t>
   </si>
   <si>
+    <t>CIP-MMDC800608</t>
+  </si>
+  <si>
+    <t>公司-电白区乙烯厂-公司</t>
+  </si>
+  <si>
+    <t>黄女士</t>
+  </si>
+  <si>
+    <t>取一台HP打印机回公司给龙修</t>
+  </si>
+  <si>
     <t>2021年3月22</t>
   </si>
   <si>
@@ -605,6 +617,9 @@
 </t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>送HP打印机回去给客户</t>
   </si>
   <si>
     <t>、</t>
@@ -1251,7 +1266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1737,13 +1752,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2089,13 +2134,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" applyNumberFormat="1" fontId="0" fillId="0" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -2115,10 +2166,10 @@
   <sheetPr>
     <outlinePr showOutlineSymbols="1"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2347,96 +2398,129 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="122">
+        <v>44274</v>
+      </c>
+      <c r="D13" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="120">
+        <v>36</v>
+      </c>
+      <c r="I13" s="123" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="11">
+        <v>42.0</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="120" t="s">
+      <c r="C15" s="16">
+        <v>44278</v>
+      </c>
+      <c r="D15" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E15" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="F15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="11">
-        <v>42</v>
-      </c>
-      <c r="I13" s="121" t="s">
-        <v>46</v>
+      <c r="H15" s="11">
+        <v>36</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="69"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="68"/>
+    <row r="16" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="11"/>
       <c r="C16" s="14"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="13"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="11"/>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="68"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="13"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="13"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="11"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="13"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="11"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="14"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="11"/>
       <c r="F20" s="13"/>
       <c r="G20" s="11"/>
@@ -2484,31 +2568,41 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="B25" s="11"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="11"/>
       <c r="F25" s="13"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G26" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="1">
-        <f>SUM(H6:H25)</f>
-        <v>463</v>
-      </c>
+    <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H30" s="19"/>
+    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G27" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="1">
+        <f>SUM(H6:H26)</f>
+        <v>535</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H31" s="1"/>
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/HP/zj/202102.xlsx
+++ b/HP/zj/202102.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>2021年02月份旅差费</t>
   </si>
@@ -620,6 +620,18 @@
   </si>
   <si>
     <t>送HP打印机回去给客户</t>
+  </si>
+  <si>
+    <t>公司-官山三路华泰电脑科技-公司</t>
+  </si>
+  <si>
+    <t>华泰前台</t>
+  </si>
+  <si>
+    <t>5*2</t>
+  </si>
+  <si>
+    <t>华泰拉打印机</t>
   </si>
   <si>
     <t>、</t>
@@ -632,7 +644,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="176" formatCode="0%"/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -643,8 +655,9 @@
     <numFmt numFmtId="183" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="184" formatCode="@"/>
     <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="186" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="38">
+  <fonts count="37" x14ac:knownFonts="37">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -880,11 +893,6 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -1266,7 +1274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1722,73 +1730,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2134,19 +2082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" applyNumberFormat="1" fontId="0" fillId="0" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="186" applyNumberFormat="1" fontId="0" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -2168,8 +2104,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2400,28 +2336,28 @@
     </row>
     <row r="13" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="122">
-        <v>44274</v>
-      </c>
-      <c r="D13" s="123" t="s">
+      <c r="C13" s="16">
+        <v>44274.0</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="119" t="s">
+      <c r="E13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="121" t="s">
+      <c r="F13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="120" t="s">
+      <c r="G13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="120">
-        <v>36</v>
-      </c>
-      <c r="I13" s="123" t="s">
+      <c r="H13" s="11">
+        <v>36.0</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2452,16 +2388,16 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="16">
-        <v>44278</v>
-      </c>
-      <c r="D15" s="123" t="s">
+        <v>44278.0</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -2471,21 +2407,37 @@
         <v>13</v>
       </c>
       <c r="H15" s="11">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="14"/>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="119">
+        <v>44280</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="68"/>
@@ -2579,7 +2531,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2591,11 +2543,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202102.xlsx
+++ b/HP/zj/202102.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>2021年02月份旅差费</t>
   </si>
@@ -632,6 +632,48 @@
   </si>
   <si>
     <t>华泰拉打印机</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-013473779
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-013483244
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-013483223+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司-高州分界中学-公司</t>
+  </si>
+  <si>
+    <t>张亮</t>
+  </si>
+  <si>
+    <t>20*2</t>
+  </si>
+  <si>
+    <t>和金龙一起去换两块主板一个电源。其中一台机追加CPU。</t>
   </si>
   <si>
     <t>、</t>
@@ -654,10 +696,10 @@
     <numFmt numFmtId="182" formatCode="yyyy-m-d"/>
     <numFmt numFmtId="183" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="184" formatCode="@"/>
-    <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="37">
+  <fonts count="38" x14ac:knownFonts="38">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -893,6 +935,11 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -1274,7 +1321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1595,6 +1642,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1730,13 +1792,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1938,6 +2015,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="185" applyNumberFormat="1" fontId="0" fillId="0" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1950,10 +2030,10 @@
     <xf numFmtId="0" fontId="21" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" applyFont="1" fillId="36" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" applyFont="1" fillId="37" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="36" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="37" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1962,34 +2042,34 @@
     <xf numFmtId="0" fontId="25" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" applyFont="1" fillId="36" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" applyFont="1" fillId="38" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="36" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="38" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
@@ -2076,13 +2156,16 @@
     <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="186" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" applyNumberFormat="1" fontId="0" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="182" applyNumberFormat="1" fontId="0" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -2104,8 +2187,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2417,8 +2500,8 @@
       <c r="B16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="119">
-        <v>44280</v>
+      <c r="C16" s="71">
+        <v>44280.0</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>52</v>
@@ -2439,15 +2522,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="68"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="14"/>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="120">
+        <v>44286</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="11">
+        <v>40</v>
+      </c>
+      <c r="I17" s="121" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
@@ -2531,7 +2630,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2543,11 +2642,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>545</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202102.xlsx
+++ b/HP/zj/202102.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>2021年02月份旅差费</t>
+    <t>2021年04月份旅差费</t>
   </si>
   <si>
     <t>单号</t>
@@ -35,58 +35,7 @@
     <t>出行方式</t>
   </si>
   <si>
-    <t>费用</t>
-  </si>
-  <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>WO-013129236</t>
-  </si>
-  <si>
-    <t>公司-公馆镇旧村小学-公司</t>
-  </si>
-  <si>
-    <t>陈先生</t>
-  </si>
-  <si>
-    <t>14*2</t>
-  </si>
-  <si>
-    <t>自驾小汽车</t>
-  </si>
-  <si>
-    <t>HP台式机更换电源</t>
-  </si>
-  <si>
-    <t>WO-013118043</t>
-  </si>
-  <si>
-    <t>公司-高州石鼓镇天津塘小学-公司</t>
-  </si>
-  <si>
-    <t>陆一一先生</t>
-  </si>
-  <si>
-    <t>34*2</t>
-  </si>
-  <si>
-    <t>主板DOA（HP台式机）</t>
-  </si>
-  <si>
-    <t>WO-013173162</t>
-  </si>
-  <si>
-    <t>公司-高州市中山路恒博电脑城海龙电脑-公司</t>
-  </si>
-  <si>
-    <t>张先生</t>
-  </si>
-  <si>
-    <t>36*2</t>
-  </si>
-  <si>
-    <t>HP台式机不通电派了主板，把机取回公司追加电源</t>
   </si>
   <si>
     <r>
@@ -95,561 +44,7 @@
         <rFont val="永中宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">WO-013300956
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0000448-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司-1、电白人民检察院-2、电白大道黄金海岸-公司</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、黄先生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、郭成林</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>23+6+25</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打印机换主板</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、清华同方</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mini</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主机更换电源适配器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>无单</t>
-  </si>
-  <si>
-    <t>公司-广东石油化工学院西城校区-公司</t>
-  </si>
-  <si>
-    <t>黄老师</t>
-  </si>
-  <si>
-    <t>18*2</t>
-  </si>
-  <si>
-    <t>送两台修好的清华同方主机和两台显示器回</t>
-  </si>
-  <si>
-    <t>WO-013317150</t>
-  </si>
-  <si>
-    <t>公司-石鼓中学-公司</t>
-  </si>
-  <si>
-    <t>陈天</t>
-  </si>
-  <si>
-    <t>HP台式机换主板（DOA,蓝屏)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、高州中学高中部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、高州第四中学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">-
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、石鼓中学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>32+6+18+35</t>
-  </si>
-  <si>
-    <t>1、送主机回;2、送主机回;3、HP台式机换主板,送主机回。</t>
-  </si>
-  <si>
-    <t>CIP-MMDC800608</t>
-  </si>
-  <si>
-    <t>公司-电白区乙烯厂-公司</t>
-  </si>
-  <si>
-    <t>黄女士</t>
-  </si>
-  <si>
-    <t>取一台HP打印机回公司给龙修</t>
-  </si>
-  <si>
-    <t>2021年3月22</t>
-  </si>
-  <si>
-    <t>公司-1、油校西城区-2、农林学院-公司</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、黄老师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、叶老师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吴老师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>19+6+17</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、送一台主机到油校西区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、找叶老师取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>台主机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>找吴老师取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>台主机及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>台显示器。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>送HP打印机回去给客户</t>
-  </si>
-  <si>
-    <t>公司-官山三路华泰电脑科技-公司</t>
-  </si>
-  <si>
-    <t>华泰前台</t>
-  </si>
-  <si>
-    <t>5*2</t>
-  </si>
-  <si>
-    <t>华泰拉打印机</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">WO-013473779
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="永中宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">WO-013483244
 </t>
     </r>
     <r>
@@ -670,10 +65,13 @@
     <t>张亮</t>
   </si>
   <si>
-    <t>20*2</t>
+    <t>23*2</t>
   </si>
   <si>
-    <t>和金龙一起去换两块主板一个电源。其中一台机追加CPU。</t>
+    <t>自驾小汽车</t>
+  </si>
+  <si>
+    <t>其中一台机追加CPU,主板也坏一起换了，途中回来取扫描枪。</t>
   </si>
   <si>
     <t>、</t>
@@ -1321,7 +719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1657,6 +1055,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1807,13 +1220,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2018,6 +1446,9 @@
     <xf numFmtId="185" applyNumberFormat="1" fontId="0" fillId="0" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="182" applyNumberFormat="1" fontId="0" fillId="0" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2030,10 +1461,10 @@
     <xf numFmtId="0" fontId="21" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" applyFont="1" fillId="36" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" applyFont="1" fillId="37" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="36" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="37" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -2042,34 +1473,34 @@
     <xf numFmtId="0" fontId="25" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" applyFont="1" fillId="36" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" applyFont="1" fillId="38" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="36" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="38" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
@@ -2162,11 +1593,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="0" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="184" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -2187,8 +1624,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2205,7 +1642,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="124" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2228,325 +1665,147 @@
       <c r="G5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="121" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="68" t="s">
+      <c r="C6" s="72">
+        <v>44292</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12">
-        <v>44252.0</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11">
+        <v>46</v>
+      </c>
+      <c r="I6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="11">
-        <v>28.0</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="7" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="15">
-        <v>44253.0</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="11">
-        <v>68.0</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="35.249462" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="15">
-        <v>44256.0</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="11">
-        <v>72.0</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="12">
-        <v>44267.0</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="11">
-        <v>54.0</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="12">
-        <v>44270.0</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="11">
-        <v>36.0</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="16">
-        <v>44271.0</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11">
-        <v>72.0</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="16">
-        <v>44273.0</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="11">
-        <v>91.0</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="16">
-        <v>44274.0</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11">
-        <v>36.0</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="11">
-        <v>42.0</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="16">
-        <v>44278.0</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="11">
-        <v>36.0</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="71">
-        <v>44280.0</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="120">
-        <v>44286</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="11">
-        <v>40</v>
-      </c>
-      <c r="I17" s="121" t="s">
-        <v>60</v>
-      </c>
+      <c r="B17" s="69"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
@@ -2630,7 +1889,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2642,11 +1901,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>585</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
